--- a/biology/Mycologie/Physoderma/Physoderma.xlsx
+++ b/biology/Mycologie/Physoderma/Physoderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physoderma est un genre de champignons chytrides de la famille des Physodermataceae
-C'est le plus ancien genre de champignons chytrides[1]. Il comprend environ 80 espèces (selon que l'on inclut celles qui sont traditionnellement rattachées au genre Urophlyctis)[2].
-Cependant, certaines espèces ont été confondues avec des rouilles des genres Synchytrium et Protomyces  (Ascomycètes)[2].
-Les espèces de ce genre sont des parasites obligatoire des plantes vasculaires (ptéridophytes et angiospermes)[1]. On y trouve notamment Physoderma alfalfae et Physoderma maydis, responsables respectivement des maladies des tumeurs marbrées de la luzerne et des taches brunes du maïs[3].
+C'est le plus ancien genre de champignons chytrides. Il comprend environ 80 espèces (selon que l'on inclut celles qui sont traditionnellement rattachées au genre Urophlyctis).
+Cependant, certaines espèces ont été confondues avec des rouilles des genres Synchytrium et Protomyces  (Ascomycètes).
+Les espèces de ce genre sont des parasites obligatoire des plantes vasculaires (ptéridophytes et angiospermes). On y trouve notamment Physoderma alfalfae et Physoderma maydis, responsables respectivement des maladies des tumeurs marbrées de la luzerne et des taches brunes du maïs.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (25 novembre 2014)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (25 novembre 2014) :
 Physoderma acetosellae Rostr. 1897
 Physoderma aeschynomenes Thirum. &amp; M.D. Whitehead 1951
 Physoderma agrostidis Lagerh. 1912
